--- a/data/financial_statements/sofp/CSCO.xlsx
+++ b/data/financial_statements/sofp/CSCO.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,132 +610,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>19784000000</v>
@@ -745,8 +859,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>5439000000</v>
@@ -870,8 +984,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2664000000</v>
@@ -995,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4571000000</v>
@@ -1120,8 +1234,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>36141000000</v>
@@ -1245,8 +1359,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1972000000</v>
@@ -1370,8 +1484,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>4815000000</v>
@@ -1411,8 +1525,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>3618000000</v>
@@ -1536,8 +1650,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>40520000000</v>
@@ -1661,8 +1775,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>4891000000</v>
@@ -1747,8 +1861,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>5912000000</v>
@@ -1872,8 +1986,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>56913000000</v>
@@ -1997,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>93054000000</v>
@@ -2122,8 +2236,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1249000000</v>
@@ -2247,8 +2361,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>2316000000</v>
@@ -2372,8 +2486,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>2907000000</v>
@@ -2497,8 +2611,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1557000000</v>
@@ -2538,8 +2652,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>890000000</v>
@@ -2660,8 +2774,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>12578000000</v>
@@ -2785,8 +2899,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>4956000000</v>
@@ -2910,8 +3024,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>24896000000</v>
@@ -3035,8 +3149,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>7629000000</v>
@@ -3160,8 +3274,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>10441000000</v>
@@ -3285,8 +3399,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>-4891000000</v>
@@ -3326,8 +3440,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>9816000000</v>
@@ -3451,8 +3565,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>27886000000</v>
@@ -3576,8 +3690,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>52782000000</v>
@@ -3701,8 +3815,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>42984000000</v>
@@ -3826,8 +3940,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>-594000000</v>
@@ -3951,8 +4065,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>40272000000</v>
@@ -4076,8 +4190,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>40272000000</v>
@@ -4201,8 +4315,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>93054000000</v>
@@ -4326,8 +4440,8 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
         <v>4103000000</v>
@@ -4451,8 +4565,8 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
         <v>-248000000</v>
@@ -4576,8 +4690,8 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
         <v>-10598000000</v>
@@ -4701,8 +4815,8 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
         <v>9186000000</v>
